--- a/diaries/diary-YitianMa.xlsx
+++ b/diaries/diary-YitianMa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yitian/IdeaProjects/SWE265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDA4257-2A54-2444-A814-A0C9E1E31187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F5FCEA-3CA1-924A-857F-749D80D5A432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="28840" windowHeight="15540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -115,13 +115,102 @@
   </si>
   <si>
     <t>Be more patient; don’t be afriad to ask questions; need to get myself more familiar with Git and GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 PM - 9:30 PM </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Download, build, and run some Java systems</t>
+  </si>
+  <si>
+    <t>01.09.2020</t>
+  </si>
+  <si>
+    <t>01.15.2020</t>
+  </si>
+  <si>
+    <t>What to improve: read the instruction carefully; understand command line feedback/error messages. I initially failed to build one of the system because I overlooked the instruction</t>
+  </si>
+  <si>
+    <t>Felf calm and focused</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Build from source and run &lt;1&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JADX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Dex to Java decompiler. &lt;2&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>okhttp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;3&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JabRef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A citation and reference management tool.  P.S. For okhttp, all library tests were ran and 2421 tests were completed, 1 failed, 154 skipped.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +302,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -253,7 +347,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,14 +373,24 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -608,36 +712,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -646,7 +750,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -659,11 +763,11 @@
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1"/>
@@ -672,11 +776,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1"/>
@@ -685,7 +789,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -694,7 +798,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -703,7 +807,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -726,53 +830,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>43839</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="51">
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="102">
+      <c r="A11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -795,7 +899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -806,7 +910,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -815,7 +919,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -824,7 +928,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -833,7 +937,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -842,7 +946,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -851,7 +955,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -860,7 +964,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -869,7 +973,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -878,7 +982,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -887,7 +991,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -896,7 +1000,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -905,7 +1009,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -914,7 +1018,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -923,7 +1027,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -932,7 +1036,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -941,7 +1045,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="16">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -950,7 +1054,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="16">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -959,7 +1063,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="16">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -968,7 +1072,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="16">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -977,7 +1081,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="16">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -986,7 +1090,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="16">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -995,7 +1099,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="16">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1004,7 +1108,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="16">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1013,7 +1117,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="16">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1022,7 +1126,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="16">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1031,7 +1135,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="16">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1040,7 +1144,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="16">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1049,7 +1153,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="16">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1058,7 +1162,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="16">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1067,7 +1171,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="16">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1076,7 +1180,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="16">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1085,7 +1189,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="16">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1094,7 +1198,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="16">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1103,7 +1207,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="16">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1112,7 +1216,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="16">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1121,7 +1225,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="16">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1130,7 +1234,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="16">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1139,7 +1243,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="16">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1148,7 +1252,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="16">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1157,7 +1261,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="16">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1166,7 +1270,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="16">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1175,7 +1279,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="16">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1184,7 +1288,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="16">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1193,7 +1297,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="16">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1202,7 +1306,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="16">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -1211,7 +1315,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="16">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1220,7 +1324,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="16">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1229,7 +1333,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="16">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1238,7 +1342,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="16">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1247,7 +1351,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="16">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1256,7 +1360,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="16">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1265,7 +1369,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="16">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1274,7 +1378,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="16">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1283,7 +1387,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="16">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1292,7 +1396,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="16">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1301,7 +1405,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="16">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1310,7 +1414,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="16">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1319,7 +1423,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="16">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1328,7 +1432,7 @@
       <c r="F71" s="7"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="16">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1337,7 +1441,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="16">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1346,7 +1450,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="16">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1355,7 +1459,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="16">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -1364,7 +1468,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="16">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -1373,7 +1477,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="16">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -1382,7 +1486,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="16">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -1391,7 +1495,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="16">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -1400,7 +1504,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="16">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -1409,7 +1513,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="16">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -1418,7 +1522,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="16">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -1427,7 +1531,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="16">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -1436,7 +1540,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="16">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -1445,7 +1549,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="16">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -1454,7 +1558,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="16">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -1463,7 +1567,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="16">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -1472,7 +1576,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="16">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -1481,7 +1585,7 @@
       <c r="F88" s="7"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="16">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -1490,7 +1594,7 @@
       <c r="F89" s="7"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="16">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -1499,7 +1603,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="16">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -1508,7 +1612,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="16">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -1517,7 +1621,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="16">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -1526,7 +1630,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="16">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -1535,7 +1639,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="16">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -1544,7 +1648,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="16">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -1553,7 +1657,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="16">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -1562,7 +1666,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="16">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -1571,7 +1675,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="16">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -1580,7 +1684,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="16">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -1589,7 +1693,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="16">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -1598,7 +1702,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="16">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -1607,7 +1711,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="16">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -1616,7 +1720,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="16">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -1625,7 +1729,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="16">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -1634,7 +1738,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="16">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -1643,7 +1747,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="16">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -1652,7 +1756,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="16">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -1661,7 +1765,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="16">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -1670,7 +1774,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="16">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -1679,7 +1783,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="16">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -1688,7 +1792,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="16">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -1697,7 +1801,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="16">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -1706,7 +1810,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="16">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -1715,7 +1819,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="16">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -1724,7 +1828,7 @@
       <c r="F115" s="7"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="16">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -1733,7 +1837,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="16">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -1742,7 +1846,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="16">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -1751,7 +1855,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="16">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -1760,7 +1864,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="16">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -1769,7 +1873,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="16">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -1778,7 +1882,7 @@
       <c r="F121" s="7"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="16">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -1787,7 +1891,7 @@
       <c r="F122" s="7"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="16">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -1796,7 +1900,7 @@
       <c r="F123" s="7"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="16">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -1805,7 +1909,7 @@
       <c r="F124" s="7"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="16">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>

--- a/diaries/diary-YitianMa.xlsx
+++ b/diaries/diary-YitianMa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yitian/IdeaProjects/SWE265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F5FCEA-3CA1-924A-857F-749D80D5A432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266C2A40-8D92-2E4D-A519-30BA7FBCB02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -51,42 +51,18 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>&lt;what day?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what time?&gt;</t>
-  </si>
-  <si>
     <t>Reflection</t>
   </si>
   <si>
-    <t>&lt;as applicable, with whom?&gt;</t>
-  </si>
-  <si>
     <t>Your Overall Mood</t>
   </si>
   <si>
     <t>Goal</t>
   </si>
   <si>
-    <t>&lt;what did you want to accomplish?&gt;</t>
-  </si>
-  <si>
     <t>Achievements</t>
   </si>
   <si>
-    <t>&lt;what did you actually accomplish?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what insight(s) did you gain?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;how did you feel during the activity?&gt;</t>
-  </si>
-  <si>
-    <t>Etc.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name: </t>
   </si>
   <si>
@@ -133,9 +109,6 @@
   </si>
   <si>
     <t>What to improve: read the instruction carefully; understand command line feedback/error messages. I initially failed to build one of the system because I overlooked the instruction</t>
-  </si>
-  <si>
-    <t>Felf calm and focused</t>
   </si>
   <si>
     <r>
@@ -204,6 +177,60 @@
       </rPr>
       <t>: A citation and reference management tool.  P.S. For okhttp, all library tests were ran and 2421 tests were completed, 1 failed, 154 skipped.</t>
     </r>
+  </si>
+  <si>
+    <t>01.16.2020</t>
+  </si>
+  <si>
+    <t>01.17.2020</t>
+  </si>
+  <si>
+    <t>2 PM - 4 PM</t>
+  </si>
+  <si>
+    <t>01.18.2020</t>
+  </si>
+  <si>
+    <t>9 PM - 12 PM</t>
+  </si>
+  <si>
+    <t>Complete JPacMan3 homework</t>
+  </si>
+  <si>
+    <t>Confirm group project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finish some in-class practice (reading code, modifying code &amp; fixing bugs) with the guide of Andre and with the help of classmates </t>
+  </si>
+  <si>
+    <t>It took me a while to figure out how to properly import github project into Intellij, which was kind of frastruting; but I finally caught up on the practice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good to know (1) how to use "Find Usages" and to search keyword in the project, (2) some great strategies for reading code and solving specific problems. </t>
+  </si>
+  <si>
+    <t>Felt calm and focused</t>
+  </si>
+  <si>
+    <t>Discuss group project ideas with teammates online. We together went through the project requirements and everyone's interest and concerns.</t>
+  </si>
+  <si>
+    <t>happy to learn and explore something new in class  :^)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making decisions on group project is not easy. It involves lots of searching, discussing, and of course learning. </t>
+  </si>
+  <si>
+    <t>Utilized the strategies (guessing, scanning, skipping, highlighting ...) of reading code I learned in class. Searched  a few online documents to figure out some concepts and terminology about game development.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appreciated  teammates' effort and felt that this project would be a great learning experience. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is not a very straight-forward assignment ( okay, I guess reverse engineering homeowrk never be straight-forward), but it is really rewarding and fun. </t>
+  </si>
+  <si>
+    <t>Mix of confusion and inspiration. Good in general.</t>
   </si>
 </sst>
 </file>
@@ -331,12 +358,32 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -347,7 +394,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -376,21 +423,31 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -712,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -722,24 +779,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="16">
       <c r="A3" s="1"/>
@@ -752,10 +809,10 @@
     </row>
     <row r="4" spans="1:7" ht="17">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -768,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -781,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -818,106 +875,132 @@
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="14" customFormat="1" ht="51">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="18" customFormat="1" ht="102">
+      <c r="A11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="18" customFormat="1" ht="85">
+      <c r="A12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="68">
+      <c r="A13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="102">
+      <c r="A14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="102">
-      <c r="A11" s="15" t="s">
+      <c r="C14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="16">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16">
       <c r="A15" s="7"/>

--- a/diaries/diary-YitianMa.xlsx
+++ b/diaries/diary-YitianMa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yitian/IdeaProjects/SWE265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266C2A40-8D92-2E4D-A519-30BA7FBCB02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E6AA07-C7D3-2E41-8064-C52D2E73E4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -232,12 +232,84 @@
   <si>
     <t>Mix of confusion and inspiration. Good in general.</t>
   </si>
+  <si>
+    <t>01.23.2020</t>
+  </si>
+  <si>
+    <t>Yue</t>
+  </si>
+  <si>
+    <t>learn externalizing mental modesl and UML class diagrams</t>
+  </si>
+  <si>
+    <t>learned the concepts and applications of mental model as well as UML. Installed SimpleUML and together with my partner finished the inlcass practice - find pacman features in UML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The UML diagram is a powerful way to understand the codebase, but for a prject is often overwhelming, esepecally when I was not familiar with the UML tool (SimpleUML). I always created the gaint UML diagram for the entire project…the result of which was even more confusing. Latern on, I learned we can look at pieces of smaller individual UML diagrams from different modules and folders. and it helps a lot. (ps. I installed StarUML, but it is super slow on my computer) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confused and struggled about the tool. </t>
+  </si>
+  <si>
+    <t>01.25.2020</t>
+  </si>
+  <si>
+    <t>7 PM - 9 PM</t>
+  </si>
+  <si>
+    <t>Shikun, Santhiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss an alternative project </t>
+  </si>
+  <si>
+    <t>found a legit one to work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The original group project is ExoPlayer, the code of which is primarily about liabries rather than an application as we expected. There are a few demos but they empasis more on teaching users how to use libaries. So we decided to switch to a new prject right away.  I recommonded JabRef ( one of the systems I tried to deploy a while ago) and we all agreed this is a good one. </t>
+  </si>
+  <si>
+    <t>Okay.</t>
+  </si>
+  <si>
+    <t>01.26.2020</t>
+  </si>
+  <si>
+    <t>2 PM - 5 PM</t>
+  </si>
+  <si>
+    <t>Work on the group assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">got familiar with the codebase and UML diagram.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had difficulty using SimpleUML like I described above and I thought it was designed to be like this. Also, I can’t save images from it. All exported UML images turned out to be black. I asked Shikun, he told me some tips on how to use the tool smartly. </t>
+  </si>
+  <si>
+    <t>01.27.2020</t>
+  </si>
+  <si>
+    <t>10 PM - 1AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look through system features and finish the assignemnt </t>
+  </si>
+  <si>
+    <t>Worked out well.</t>
+  </si>
+  <si>
+    <t>We worked collaboratly on a shared doc, and wrote writeup, added feature images and code snippets with the working templates.</t>
+  </si>
+  <si>
+    <t>YAY.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +406,13 @@
       <color rgb="FF006100"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -394,7 +473,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -448,6 +527,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -769,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1002,41 +1089,97 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="16">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="16">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
+    <row r="15" spans="1:7" s="21" customFormat="1" ht="221">
+      <c r="A15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="22" customFormat="1" ht="187">
+      <c r="A16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="21" customFormat="1" ht="119">
+      <c r="A17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="21" customFormat="1" ht="68">
+      <c r="A18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="16">
       <c r="A19" s="7"/>

--- a/diaries/diary-YitianMa.xlsx
+++ b/diaries/diary-YitianMa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yitian/IdeaProjects/SWE265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E6AA07-C7D3-2E41-8064-C52D2E73E4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC356259-9D67-B74C-AB2C-00B329866C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -303,6 +303,39 @@
   </si>
   <si>
     <t>YAY.</t>
+  </si>
+  <si>
+    <t>01.30.2020</t>
+  </si>
+  <si>
+    <t>Learning object: behavioral vs. structural models, key properties of experts, UML in detail</t>
+  </si>
+  <si>
+    <t>Knew the difference b/w behavioral and structural models; understood UML annotations in a systematic way (and I still need to go further on this topic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really like those key properties of experts, simple but powerful. I also felt great to learn more about UML. It makes me more confident when looking at those overwhelming graphs.  </t>
+  </si>
+  <si>
+    <t>Good.</t>
+  </si>
+  <si>
+    <t>01.13.2020</t>
+  </si>
+  <si>
+    <t>3 PM - 5 PM</t>
+  </si>
+  <si>
+    <t>Finish the individual homework of this week: read/watch tutorials on UML class diagram and sequence diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished all. </t>
+  </si>
+  <si>
+    <t>I found those two Lucidchart videos especially helpful.</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
@@ -525,9 +558,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -535,6 +565,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -856,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -866,24 +899,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="16">
       <c r="A3" s="1"/>
@@ -1089,7 +1122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="21" customFormat="1" ht="221">
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="221">
       <c r="A15" s="16" t="s">
         <v>45</v>
       </c>
@@ -1108,11 +1141,11 @@
       <c r="F15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" ht="187">
+    <row r="16" spans="1:7" s="21" customFormat="1" ht="187">
       <c r="A16" s="16" t="s">
         <v>51</v>
       </c>
@@ -1131,12 +1164,12 @@
       <c r="F16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" ht="119">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="119">
+      <c r="A17" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -1154,11 +1187,11 @@
       <c r="F17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" ht="68">
+    <row r="18" spans="1:7" s="20" customFormat="1" ht="68">
       <c r="A18" s="16" t="s">
         <v>63</v>
       </c>
@@ -1168,7 +1201,7 @@
       <c r="C18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>65</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -1177,27 +1210,55 @@
       <c r="F18" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="16">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+    <row r="19" spans="1:7" s="21" customFormat="1" ht="85">
+      <c r="A19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="18" customFormat="1" ht="48">
+      <c r="A20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="16">
       <c r="A21" s="7"/>

--- a/diaries/diary-YitianMa.xlsx
+++ b/diaries/diary-YitianMa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yitian/IdeaProjects/SWE265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC356259-9D67-B74C-AB2C-00B329866C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAAFB66-C9F2-3D40-9088-EF02E9DB3E46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -320,9 +320,6 @@
     <t>Good.</t>
   </si>
   <si>
-    <t>01.13.2020</t>
-  </si>
-  <si>
     <t>3 PM - 5 PM</t>
   </si>
   <si>
@@ -336,6 +333,39 @@
   </si>
   <si>
     <t>Good</t>
+  </si>
+  <si>
+    <t>01.31.2020</t>
+  </si>
+  <si>
+    <t>02.01.2020</t>
+  </si>
+  <si>
+    <t>1 PM - 6 PM</t>
+  </si>
+  <si>
+    <t>02.04.2020</t>
+  </si>
+  <si>
+    <t>1:30 PM - 2:30 PM</t>
+  </si>
+  <si>
+    <t>Search and Document features for team homework 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found an essential feature I think looks good to work on and had a brief writeup about the function stacks for that feature </t>
+  </si>
+  <si>
+    <t>Our project is a desktop application using GUI. Sometimes I felt puzzeled about the logic part and the UI part and their interactions in this project.</t>
+  </si>
+  <si>
+    <t>Group meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had agreement on the features; shared what we had collected about that feature; and discussed the formart of the documentation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group meeting is an efficient way to check every body's process and make sure we are on the same page. </t>
   </si>
 </sst>
 </file>
@@ -890,7 +920,7 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1239,44 +1269,72 @@
     </row>
     <row r="20" spans="1:7" s="18" customFormat="1" ht="48">
       <c r="A20" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="16">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+    </row>
+    <row r="21" spans="1:7" s="18" customFormat="1" ht="68">
+      <c r="A21" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="18" customFormat="1" ht="68">
+      <c r="A22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16">
       <c r="A23" s="7"/>

--- a/diaries/diary-YitianMa.xlsx
+++ b/diaries/diary-YitianMa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yitian/IdeaProjects/SWE265/W2020/diaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yitian/Desktop/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAAFB66-C9F2-3D40-9088-EF02E9DB3E46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C6290E-2CB5-3141-B1A0-71743FC92546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t xml:space="preserve">Group meeting is an efficient way to check every body's process and make sure we are on the same page. </t>
+  </si>
+  <si>
+    <t>02.06.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning objects: key expert practices, mental stimulation, inclass practice, midterm preview, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">learned more on the topic KEP, new concept about mental stimulation, participated inclass practice. Also learned 'never make assumptions about data', '3 level debugging' and other useful stuff from the guest talk. </t>
+  </si>
+  <si>
+    <t>like those inclass practice, it was fun.</t>
   </si>
 </sst>
 </file>
@@ -919,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1336,14 +1348,28 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+    <row r="23" spans="1:7" s="20" customFormat="1" ht="102">
+      <c r="A23" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16">
       <c r="A24" s="7"/>

--- a/diaries/diary-YitianMa.xlsx
+++ b/diaries/diary-YitianMa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yitian/Desktop/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C6290E-2CB5-3141-B1A0-71743FC92546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC0F77E-3189-F447-AFC0-3F9EEAF0F13A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-180" yWindow="460" windowWidth="24880" windowHeight="15540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -378,6 +378,45 @@
   </si>
   <si>
     <t>like those inclass practice, it was fun.</t>
+  </si>
+  <si>
+    <t>02.17.2020</t>
+  </si>
+  <si>
+    <t>02.13.2020</t>
+  </si>
+  <si>
+    <t>02.19.2020</t>
+  </si>
+  <si>
+    <t>midterm and a small lecture on "big picture"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished midterm in the last second. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent a good amount of time writing methods signature for that UML question. (The question only allows skipping fields and constructors). Also, I'm worried about my hand writing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 PM - 5 PM </t>
+  </si>
+  <si>
+    <t>Agreed with a resubmission of 2nd HW; discussed an alternative feature, and shared some thoughts on the 3rd HW</t>
+  </si>
+  <si>
+    <t>Needed a meeting with Kaj to confirm our choice of the new feature and to ask some clarification questions.</t>
+  </si>
+  <si>
+    <t>2 PM - 4 PM &amp; 9 PM - 11 PM</t>
+  </si>
+  <si>
+    <t>Finish my part of the 3ed HW, mainly on essential  non-functional aspects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read many online articles and wikipedia to know the categories and corresponding examples about NF requirements. After intensive discussion, got the work done. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We really needs to understand the definition of each term and know some common examples to get the work start. </t>
   </si>
 </sst>
 </file>
@@ -548,7 +587,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -610,6 +649,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -931,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1371,32 +1414,74 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="16">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="16">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+    <row r="24" spans="1:7" s="24" customFormat="1" ht="85">
+      <c r="A24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="51">
+      <c r="A25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="24" customFormat="1" ht="85">
+      <c r="A26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="16">
       <c r="A27" s="7"/>

--- a/diaries/diary-YitianMa.xlsx
+++ b/diaries/diary-YitianMa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yitian/Desktop/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC0F77E-3189-F447-AFC0-3F9EEAF0F13A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329B513A-DAC1-3F4F-A5B9-31DBCCCE2D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="460" windowWidth="24880" windowHeight="15540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="26220" yWindow="600" windowWidth="30860" windowHeight="19560" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -417,6 +417,33 @@
   </si>
   <si>
     <t xml:space="preserve">We really needs to understand the definition of each term and know some common examples to get the work start. </t>
+  </si>
+  <si>
+    <t>02.21.2020</t>
+  </si>
+  <si>
+    <t>Find ifve "interesting" pull request of our sustem for this week's homework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked out 15 - 20 open and closed pull requests, selected the top 5  "interesting" PR (I think). They are marked with different labels, and some of them are accepted, others are not. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time for me to look through pull requests in details: those colorful labels, required status checks, the conversation b/w the submitter and developers…etc. </t>
+  </si>
+  <si>
+    <t>02.22.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 PM - 11 PM </t>
+  </si>
+  <si>
+    <t>3 PM - 3:30 PM</t>
+  </si>
+  <si>
+    <t>Discussed how to approach the architecture aspect of our assignment. Searched and checked some online doc together. Each person took a part to finish</t>
+  </si>
+  <si>
+    <t>it was great that we started our assignment eariler so that we had enough time to  elaborate our work.</t>
   </si>
 </sst>
 </file>
@@ -587,7 +614,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -647,12 +674,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -974,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -984,24 +1008,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="16">
       <c r="A3" s="1"/>
@@ -1414,7 +1438,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="24" customFormat="1" ht="85">
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="85">
       <c r="A24" s="11" t="s">
         <v>95</v>
       </c>
@@ -1460,46 +1484,74 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="24" customFormat="1" ht="85">
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="85">
       <c r="A26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="11" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="16">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="85">
+      <c r="A27" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="18" customFormat="1" ht="85">
+      <c r="A28" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="16">
       <c r="A29" s="7"/>

--- a/diaries/diary-YitianMa.xlsx
+++ b/diaries/diary-YitianMa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yitian/Desktop/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329B513A-DAC1-3F4F-A5B9-31DBCCCE2D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418B07B7-9518-8D47-8893-C258214A7542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26220" yWindow="600" windowWidth="30860" windowHeight="19560" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="29240" yWindow="460" windowWidth="30860" windowHeight="19560" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="132">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -444,6 +444,54 @@
   </si>
   <si>
     <t>it was great that we started our assignment eariler so that we had enough time to  elaborate our work.</t>
+  </si>
+  <si>
+    <t>02.28.2020</t>
+  </si>
+  <si>
+    <t>1 PM - 2:30 PM</t>
+  </si>
+  <si>
+    <t>Find an issue to work on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read through the contributing policy od our system carefully; checkout some closed pull reuqests to get a sense of what it looks like to contribute to an open-source project; found an issue to fix that seems to be beginner-friendly  </t>
+  </si>
+  <si>
+    <t>It is very helpful to look at those issues with the label of "good-first-issue" and find some ones mainly for bug fixing (I assume this type of issue is good to try out for people like us without prior open-source contribution experience.)</t>
+  </si>
+  <si>
+    <t>03.02.2020</t>
+  </si>
+  <si>
+    <t>10 PM - 11 PM</t>
+  </si>
+  <si>
+    <t>Submit a pull request for the issue of choice</t>
+  </si>
+  <si>
+    <t>A bit anxious</t>
+  </si>
+  <si>
+    <t>Checkout documentation; manually tested changed feature in running environment; followed the contributing policy to make a pull reuqest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was prepared to be rejected and make changes as requested in the future. It is also important to see how the conversation b/w submitters and reviewers goes from other pull requests; and be friendly in the discussion. </t>
+  </si>
+  <si>
+    <t>03.03.2020</t>
+  </si>
+  <si>
+    <t>10 PM - 12 PM</t>
+  </si>
+  <si>
+    <t>Make changes requested</t>
+  </si>
+  <si>
+    <t>Got response from the reviewer and required to make small changes based upon the reviewer's suggestion. Then, the puzzle came in that I didn't know what to do next with "Change Requested". Should I make a new pull request and link the current one with the new one, or some other way? So I googled around and it seems like I only need to make new commit on the same branch I made the pull request on. I tried this, and new commit for  changes indeed show up in the same pull request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every step of contributing to an open-source project  is a good learning experience. </t>
   </si>
 </sst>
 </file>
@@ -998,13 +1046,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.1640625" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
@@ -1553,32 +1607,74 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" ht="16">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" ht="16">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="102">
+      <c r="A29" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="18" customFormat="1" ht="119">
+      <c r="A30" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="18" customFormat="1" ht="187">
+      <c r="A31" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="16">
       <c r="A32" s="7"/>
